--- a/bin/Release/netcoreapp3.1/RequiredFiles/ClaimMapping.xlsx
+++ b/bin/Release/netcoreapp3.1/RequiredFiles/ClaimMapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Key</t>
   </si>
@@ -88,18 +88,12 @@
     <t>DefaultUsernameForSuClaimOwner</t>
   </si>
   <si>
-    <t>Synergy1</t>
-  </si>
-  <si>
     <t>This default value will be considered if Subclaim owner value not found while filing. Used in Clam.cs -Line:302</t>
   </si>
   <si>
     <t>CauseofLossDropdown</t>
   </si>
   <si>
-    <t>Fire</t>
-  </si>
-  <si>
     <t>ClaimNumber</t>
   </si>
   <si>
@@ -164,6 +158,45 @@
   </si>
   <si>
     <t>Used to filter data from the second file</t>
+  </si>
+  <si>
+    <t>This value will be used if Cause of loss not avaialble in input file</t>
+  </si>
+  <si>
+    <t>CauseofLoss</t>
+  </si>
+  <si>
+    <t>Casue Of Loss</t>
+  </si>
+  <si>
+    <t>Basedatafile means, the excel where tool update the latest generated claim number.</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>eBaoClass</t>
+  </si>
+  <si>
+    <t>eBao</t>
+  </si>
+  <si>
+    <t>D/RI</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>SettleTypeLoss</t>
+  </si>
+  <si>
+    <t>SettleTypeSubrogation</t>
+  </si>
+  <si>
+    <t>Recovery From T.P.</t>
   </si>
 </sst>
 </file>
@@ -498,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +564,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -540,12 +573,12 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -554,12 +587,12 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -568,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -576,7 +609,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -585,12 +618,12 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -599,12 +632,12 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -613,12 +646,12 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -627,12 +660,12 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -641,90 +674,120 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,26 +827,37 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Release/netcoreapp3.1/RequiredFiles/ClaimMapping.xlsx
+++ b/bin/Release/netcoreapp3.1/RequiredFiles/ClaimMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>Key</t>
   </si>
@@ -166,9 +166,6 @@
     <t>CauseofLoss</t>
   </si>
   <si>
-    <t>Casue Of Loss</t>
-  </si>
-  <si>
     <t>Basedatafile means, the excel where tool update the latest generated claim number.</t>
   </si>
   <si>
@@ -178,18 +175,9 @@
     <t>eBaoClass</t>
   </si>
   <si>
-    <t>eBao</t>
-  </si>
-  <si>
     <t>D/RI</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>Collision</t>
-  </si>
-  <si>
     <t>SettleTypeLoss</t>
   </si>
   <si>
@@ -197,6 +185,39 @@
   </si>
   <si>
     <t>Recovery From T.P.</t>
+  </si>
+  <si>
+    <t>Cause Of Loss</t>
+  </si>
+  <si>
+    <t>eBao Class</t>
+  </si>
+  <si>
+    <t>VesselPolicyNumber</t>
+  </si>
+  <si>
+    <t>VesselClaimNumber</t>
+  </si>
+  <si>
+    <t>VesselName</t>
+  </si>
+  <si>
+    <t>From VesselRiskinfo excel</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>Project One</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -531,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,29 +786,62 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -800,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -838,7 +892,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -846,7 +900,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -854,10 +908,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
